--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 남북한통일.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 남북한통일.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,14 +476,264 @@
           <t>김대중 : 2000, 남측의 연합제 안과 북측의 낮은 수준의 연방제 안 사이 공통성 인정</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20230216</t>
-        </is>
+      <c r="D2" t="n">
+        <v>20230216</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>12시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>통일 민주 공화국 수립 지향</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">노무현 </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>노태우 : 1989, 한민족 공동체 통일 방안</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>현 정전 체제 종식, 항구적인 평화 체제 구축, 서해 평화 협력 특별 지대 설치 합의</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">김대중 </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>노무현 : 2007, 제2차 남북 정상 회담</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>6·23 선언</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">전두환 </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>박정희 : 1973, 남북한 유엔 동시 가입 제안, 공산권 국가에 문호 개방</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>민족 공동체 통일 방안</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">김대중 </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>김영삼 : 1994, 한민족 공동체 통일 + 3단계 3기조 ⇒ 3원칙, 3단계 통일 방안</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>판문점 남북 연락 사무소 설치</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">김영삼 </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>노태우 : 1991, 남북 기본 합의서</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>자주, 평화, 민주의 원칙 아래 통일 민주 공화국 구성 제안</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">김영삼 </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>노태우 : 1989, 한민족 공동체 통일 방안</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>남측의 연합제 안과 북측의 낮은 수준의 연방제 안 사이 공통성 인정</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">노무현 </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>김대중 : 2000, 6·15 남북 공동 선언</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>민족 공동체 통일 방안</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">박정희 </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>김영삼 : 1994, 한민족 공동체 통일 + 3단계 3기조 ⇒ 3원칙, 3단계 통일 방안</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>통일 민주 공화국 수립 지향</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">노무현 </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>노태우 : 1989, 한민족 공동체 통일 방안</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>자주, 평화, 민주의 원칙 아래 통일 민주 공화국 구성 제안</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">김영삼 </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>노태우 : 1989, 한민족 공동체 통일 방안</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20230217</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23시 50분</t>
         </is>
       </c>
     </row>
